--- a/data/data_raw/catchHistory/Landings_FY1998.xlsx
+++ b/data/data_raw/catchHistory/Landings_FY1998.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min-yang.lee\Downloads\catches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Groundfish-MSE\data\data_raw\catchHistory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -787,7 +787,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1023,9 +1023,13 @@
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>12110</v>
+      </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>55045.454545454544</v>
+      </c>
       <c r="E13">
         <v>1998</v>
       </c>
@@ -1052,9 +1056,13 @@
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>758</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>75800</v>
+      </c>
       <c r="E15">
         <v>1998</v>
       </c>
@@ -1085,7 +1093,9 @@
         <v>5655</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>56550</v>
+      </c>
       <c r="E17">
         <v>1998</v>
       </c>
@@ -1116,7 +1126,9 @@
         <v>7787</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="2">
+        <v>55621.428571428565</v>
+      </c>
       <c r="E19">
         <v>1998</v>
       </c>
@@ -1218,7 +1230,9 @@
         <v>4048</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>57828.57142857142</v>
+      </c>
       <c r="E25">
         <v>1998</v>
       </c>
